--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysait-my.sharepoint.com/personal/harry_jung_edu_sait_ca/Documents/Soft Analysis/SoftwareAnalysisFinal/SoftwareAnalysisFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6374920B-7702-4EB3-B840-93A6EA638920}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EEBF9F1-E1B2-4D12-9396-FCF1EBCE8331}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CustomerInformation" sheetId="3" r:id="rId3"/>
     <sheet name="RentalInfo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>category id</t>
   </si>
@@ -63,22 +63,10 @@
     <t>daily_rate</t>
   </si>
   <si>
-    <t>Hammer drill</t>
-  </si>
-  <si>
-    <t>Powerful drill for concrete and masonry</t>
-  </si>
-  <si>
-    <t>Chainsaw</t>
-  </si>
-  <si>
-    <t>Gas-powered chainsaw for cutting wood</t>
-  </si>
-  <si>
-    <t>Small Compressor</t>
-  </si>
-  <si>
-    <t>5 Gallon Compressor-Portable</t>
+    <t>501</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>Brad Nailer</t>
@@ -87,6 +75,9 @@
     <t>Brad Nailer. Requires 3/4 to 1 1/2 Brad Nails</t>
   </si>
   <si>
+    <t>10.99</t>
+  </si>
+  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -151,19 +142,14 @@
   </si>
   <si>
     <t>cost</t>
-  </si>
-  <si>
-    <t>Lawn mower</t>
-  </si>
-  <si>
-    <t>Self-propelled lawn mower with mulching function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,9 +191,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -218,13 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -519,7 +502,7 @@
     <col min="1" max="2" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -535,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" ht="28.5">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -543,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" ht="28.5">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -551,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -559,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -569,123 +552,57 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C155990-222F-450F-8567-C4ACB1FD99A5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
-        <v>101</v>
-      </c>
-      <c r="B2" s="8">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
-        <v>201</v>
-      </c>
-      <c r="B3" s="8">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
-        <v>202</v>
-      </c>
-      <c r="B4" s="8">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
-        <v>301</v>
-      </c>
-      <c r="B5" s="8">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E2" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
-        <v>501</v>
-      </c>
-      <c r="B6" s="8">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>10.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -699,88 +616,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.46484375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.86328125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="13.06640625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -794,38 +712,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.9296875" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="11.46484375" customWidth="1"/>
+    <col min="5" max="6" bestFit="1" width="9.9296875" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" ht="15.4">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="15.4">
       <c r="A2" s="5">
         <v>1000</v>
       </c>
@@ -848,7 +766,7 @@
         <v>149.97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" ht="15.4">
       <c r="A3" s="5">
         <v>1001</v>
       </c>
@@ -873,5 +791,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysait-my.sharepoint.com/personal/harry_jung_edu_sait_ca/Documents/Soft Analysis/SoftwareAnalysisFinal/SoftwareAnalysisFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EEBF9F1-E1B2-4D12-9396-FCF1EBCE8331}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{913479EE-4559-45C1-A2A7-3CC112FC48E6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoryList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>category id</t>
   </si>
@@ -93,6 +93,9 @@
     <t>e-mail</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>Doe</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>jd@sample.net</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -114,7 +120,7 @@
     <t>(555) 555-3434</t>
   </si>
   <si>
-    <t>js@live.com</t>
+    <t>1003</t>
   </si>
   <si>
     <t>Lee</t>
@@ -126,7 +132,19 @@
     <t>(555) 555-5656</t>
   </si>
   <si>
-    <t>ml@sample.net</t>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>4035555555</t>
+  </si>
+  <si>
+    <t>Harryjung@test.net</t>
   </si>
   <si>
     <t>rental_id</t>
@@ -149,18 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,11 +199,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -204,15 +213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C155990-222F-450F-8567-C4ACB1FD99A5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -608,20 +615,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9B7C89-1FD2-4816-88C2-F38EDC6B3AF6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="10.46484375" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="8.86328125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="9.19921875" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="13.06640625" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="13.19921875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -641,62 +641,74 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>1001</v>
+      <c r="A2" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>1002</v>
+      <c r="A3" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>1003</v>
+      <c r="A4" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -721,71 +733,71 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="15.4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45337</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>201</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>45342</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>45345</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>149.97</v>
       </c>
     </row>
     <row r="3" ht="15.4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1001</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45338</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>501</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>45343</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>45347</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>43.96</v>
       </c>
     </row>

--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysait-my.sharepoint.com/personal/harry_jung_edu_sait_ca/Documents/Soft Analysis/SoftwareAnalysisFinal/SoftwareAnalysisFinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem 2\software analysis and design]\g\SoftwareAnalysisFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6374920B-7702-4EB3-B840-93A6EA638920}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C2342-8BF6-458A-810F-1B621AE6B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="16800" windowHeight="9670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoryList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>category id</t>
   </si>
@@ -63,30 +63,78 @@
     <t>daily_rate</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Hammer drill</t>
   </si>
   <si>
     <t>Powerful drill for concrete and masonry</t>
   </si>
   <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Chainsaw</t>
   </si>
   <si>
     <t>Gas-powered chainsaw for cutting wood</t>
   </si>
   <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Lawn mower</t>
+  </si>
+  <si>
+    <t>Self-propelled lawn mower with mulching function</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>Small Compressor</t>
   </si>
   <si>
     <t>5 Gallon Compressor-Portable</t>
   </si>
   <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>Brad Nailer</t>
   </si>
   <si>
     <t>Brad Nailer. Requires 3/4 to 1 1/2 Brad Nails</t>
   </si>
   <si>
+    <t>10.99</t>
+  </si>
+  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -151,12 +199,6 @@
   </si>
   <si>
     <t>cost</t>
-  </si>
-  <si>
-    <t>Lawn mower</t>
-  </si>
-  <si>
-    <t>Self-propelled lawn mower with mulching function</t>
   </si>
 </sst>
 </file>
@@ -207,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -222,9 +264,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -514,12 +553,12 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -535,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -543,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -551,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -559,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -577,12 +616,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -599,89 +638,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
-        <v>101</v>
-      </c>
-      <c r="B2" s="8">
-        <v>10</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
-        <v>201</v>
-      </c>
-      <c r="B3" s="8">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
-        <v>202</v>
-      </c>
-      <c r="B4" s="8">
-        <v>20</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
-        <v>301</v>
-      </c>
-      <c r="B5" s="8">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
-        <v>501</v>
-      </c>
-      <c r="B6" s="8">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>10.99</v>
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -697,81 +736,81 @@
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -792,40 +831,40 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1000</v>
       </c>
@@ -848,7 +887,7 @@
         <v>149.97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1001</v>
       </c>

--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysait-my.sharepoint.com/personal/harry_jung_edu_sait_ca/Documents/Soft Analysis/SoftwareAnalysisFinal/SoftwareAnalysisFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{913479EE-4559-45C1-A2A7-3CC112FC48E6}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDAA4276-C0F8-4908-9A83-C0E028F3E40E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoryList" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CustomerInformation" sheetId="3" r:id="rId3"/>
     <sheet name="RentalInfo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>category id</t>
   </si>
@@ -63,10 +63,22 @@
     <t>daily_rate</t>
   </si>
   <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>Chainsaw</t>
+  </si>
+  <si>
+    <t>Gas-powered chainsaw for cutting wood</t>
+  </si>
+  <si>
+    <t>Lawn mower</t>
+  </si>
+  <si>
+    <t>Self-propelled lawn mower with mulching function</t>
+  </si>
+  <si>
+    <t>Small Compressor</t>
+  </si>
+  <si>
+    <t>5 Gallon Compressor-Portable</t>
   </si>
   <si>
     <t>Brad Nailer</t>
@@ -75,9 +87,6 @@
     <t>Brad Nailer. Requires 3/4 to 1 1/2 Brad Nails</t>
   </si>
   <si>
-    <t>10.99</t>
-  </si>
-  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -147,6 +156,21 @@
     <t>Harryjung@test.net</t>
   </si>
   <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>2019491822</t>
+  </si>
+  <si>
+    <t>rk@email.net</t>
+  </si>
+  <si>
     <t>rental_id</t>
   </si>
   <si>
@@ -160,14 +184,19 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>Hammer drill</t>
+  </si>
+  <si>
+    <t>Powerful drill for concrete and masonry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -213,9 +242,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -233,6 +265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +545,7 @@
     <col min="1" max="2" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -525,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28.5">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -533,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="28.5">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -541,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -549,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -559,158 +595,247 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C155990-222F-450F-8567-C4ACB1FD99A5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
+        <v>201</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E3">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7">
+        <v>202</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E4">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7">
+        <v>301</v>
+      </c>
+      <c r="B5" s="7">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>501</v>
+      </c>
+      <c r="B6" s="7">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9B7C89-1FD2-4816-88C2-F38EDC6B3AF6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="B5" t="s">
         <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -724,38 +849,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="9.9296875" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="10.3984375" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="11.46484375" customWidth="1"/>
-    <col min="5" max="6" bestFit="1" width="9.9296875" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="6.73046875" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.4">
+    <row r="1" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="15.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -778,7 +903,7 @@
         <v>149.97</v>
       </c>
     </row>
-    <row r="3" ht="15.4">
+    <row r="3" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
@@ -803,6 +928,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -18,7 +18,7 @@
     <sheet name="CustomerInformation" sheetId="3" r:id="rId3"/>
     <sheet name="RentalInfo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>category id</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>10.99</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>discription</t>
   </si>
   <si>
     <t>customer_id</t>
@@ -205,7 +211,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +254,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -260,10 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -558,7 +565,7 @@
     <col min="1" max="2" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -574,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" ht="29">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -582,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" ht="29">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -590,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -598,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -608,12 +615,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C155990-222F-450F-8567-C4ACB1FD99A5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -621,110 +629,125 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -738,88 +761,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="D1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -833,38 +857,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="11.453125" customWidth="1"/>
+    <col min="5" max="6" bestFit="1" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.5">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5">
       <c r="A2" s="5">
         <v>1000</v>
       </c>
@@ -887,7 +911,7 @@
         <v>149.97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.5">
       <c r="A3" s="5">
         <v>1001</v>
       </c>
@@ -912,5 +936,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysait-my.sharepoint.com/personal/harry_jung_edu_sait_ca/Documents/Soft Analysis/SoftwareAnalysisFinal/SoftwareAnalysisFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDAA4276-C0F8-4908-9A83-C0E028F3E40E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104886495A69BA5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CBD90E-3295-4524-9C8A-21BAEA29CFFD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoryList" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
-  <si>
-    <t>category id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+  <si>
+    <t>category_id</t>
   </si>
   <si>
     <t>name</t>
@@ -54,39 +54,105 @@
     <t>equipment_id</t>
   </si>
   <si>
-    <t>category_id</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>daily_rate</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Hammer drill</t>
+  </si>
+  <si>
+    <t>Powerful drill for concrete and masonry</t>
+  </si>
+  <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Chainsaw</t>
   </si>
   <si>
     <t>Gas-powered chainsaw for cutting wood</t>
   </si>
   <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>Lawn mower</t>
   </si>
   <si>
     <t>Self-propelled lawn mower with mulching function</t>
   </si>
   <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>Small Compressor</t>
   </si>
   <si>
     <t>5 Gallon Compressor-Portable</t>
   </si>
   <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>Brad Nailer</t>
   </si>
   <si>
     <t>Brad Nailer. Requires 3/4 to 1 1/2 Brad Nails</t>
   </si>
   <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Impact Driver</t>
+  </si>
+  <si>
+    <t>Impact driver, for driving nails.</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1L Gasoline Generator</t>
+  </si>
+  <si>
+    <t>small gasoline generator.</t>
+  </si>
+  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -141,36 +207,6 @@
     <t>(555) 555-5656</t>
   </si>
   <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>Jung</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>4035555555</t>
-  </si>
-  <si>
-    <t>Harryjung@test.net</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>Kay</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>2019491822</t>
-  </si>
-  <si>
-    <t>rk@email.net</t>
-  </si>
-  <si>
     <t>rental_id</t>
   </si>
   <si>
@@ -186,29 +222,44 @@
     <t>cost</t>
   </si>
   <si>
-    <t>Hammer drill</t>
-  </si>
-  <si>
-    <t>Powerful drill for concrete and masonry</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>149.97</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>2024-02-25</t>
+  </si>
+  <si>
+    <t>43.96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -241,14 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,9 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -600,121 +641,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C155990-222F-450F-8567-C4ACB1FD99A5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
-        <v>101</v>
-      </c>
-      <c r="B2" s="7">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2">
-        <v>25.99</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
-        <v>201</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
-        <v>202</v>
-      </c>
-      <c r="B4" s="7">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
-        <v>301</v>
-      </c>
-      <c r="B5" s="7">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
-        <v>501</v>
-      </c>
-      <c r="B6" s="7">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>10.99</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -724,114 +792,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9B7C89-1FD2-4816-88C2-F38EDC6B3AF6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="A5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -844,86 +878,78 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G8" sqref="A4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45337</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="6">
-        <v>201</v>
-      </c>
-      <c r="E2" s="5">
-        <v>45342</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45345</v>
-      </c>
-      <c r="G2" s="4">
-        <v>149.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45338</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1002</v>
-      </c>
-      <c r="D3" s="6">
-        <v>501</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45343</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45347</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43.96</v>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/SoftwareAnalysisFinal/data.xlsx
+++ b/SoftwareAnalysisFinal/data.xlsx
@@ -18,7 +18,7 @@
     <sheet name="CustomerInformation" sheetId="3" r:id="rId3"/>
     <sheet name="RentalInfo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>category_id</t>
   </si>
@@ -207,6 +207,21 @@
     <t>(555) 555-5656</t>
   </si>
   <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>4035555555</t>
+  </si>
+  <si>
+    <t>email@email.net</t>
+  </si>
+  <si>
     <t>rental_id</t>
   </si>
   <si>
@@ -247,13 +262,26 @@
   </si>
   <si>
     <t>43.96</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>39.98</t>
+  </si>
+  <si>
+    <t>29.98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,10 +336,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,7 +610,7 @@
     <col min="1" max="2" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -602,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" ht="28.5">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -610,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" ht="28.5">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -618,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -626,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -636,6 +660,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -649,150 +674,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9B7C89-1FD2-4816-88C2-F38EDC6B3AF6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="A5:F7"/>
@@ -800,82 +826,100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347A931F-0999-4E0C-B320-53029EC60C1E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="A4:G8"/>
@@ -883,76 +927,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>